--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฆ(39).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฆ(39).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E0AFB-E394-3647-91D1-20ECA44A0588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{694E0AFB-E394-3647-91D1-20ECA44A0588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4EDFB2-FCE8-4C0D-A81A-98BE21D12C1B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2805" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>โฆษณาชวนเชื่อ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๖ เรียกว่า ฆอ ระฆัง เป็นอักษรตํ่า ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากกหรือแม่กก เช่น เมฆ.</t>
-  </si>
-  <si>
     <t>น. แท่ง, ก้อน.; ว. แน่น, ทึบ, แข็ง เช่น กรวดกรับอันคละฆนศิลา (ดุษฎีคำฉันท์).; น. แท่ง, ก้อน.; ว. แน่น, ทึบ, แข็ง เช่น กรวดกรับอันคละฆนศิลา (ดุษฎีคำฉันท์).</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>น. จมูกซึ่งเป็นใหญ่ในการดมกลิ่น.; ดู ฆาน, ฆาน-.</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๖ เรียกว่า ฆอ ระฆัง เป็นอักษรตํ่า ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากกหรือแม่กก เช่น เมฆ.</t>
   </si>
 </sst>
 </file>
@@ -731,19 +731,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,406 +754,406 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
